--- a/Excel 70-779/2020 Data/Q2 2020.xlsx
+++ b/Excel 70-779/2020 Data/Q2 2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BYoung\Desktop\Excel 70-779\2020 Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_ike\Documents\Universidad\onceavo semestre\Curso excel\Excel 70-779\2020 Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBE571E-2D46-4DB1-85A4-88468C18D627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF2C8F7-F378-4891-8F38-DCC7BE7B2017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" xr2:uid="{569F0366-9A76-49AD-99F9-D819F416895F}"/>
+    <workbookView xWindow="690" yWindow="2220" windowWidth="15375" windowHeight="8325" xr2:uid="{569F0366-9A76-49AD-99F9-D819F416895F}"/>
   </bookViews>
   <sheets>
     <sheet name="Mortgages" sheetId="4" r:id="rId1"/>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="193">
   <si>
     <t>MortgageID</t>
   </si>
@@ -611,6 +609,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Loan Type</t>
+  </si>
+  <si>
+    <t>Columna1</t>
   </si>
 </sst>
 </file>
@@ -618,7 +622,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -676,7 +680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -687,13 +691,32 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -706,8 +729,47 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E02E5C46-D065-443B-89CC-E823BCD1D786}" name="mortgages" displayName="mortgages" ref="A1:M42" totalsRowShown="0">
+  <autoFilter ref="A1:M42" xr:uid="{6DA9D3F9-2ACC-4140-9EF9-713B448FD06C}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{55F68034-82E0-4EE4-AE8B-19AD54F288BD}" name="MortgageID"/>
+    <tableColumn id="2" xr3:uid="{2F87F2AD-5EB9-4317-A04D-4AC935B59F5A}" name="Address"/>
+    <tableColumn id="3" xr3:uid="{FCD3ADF1-E052-439D-AE99-6664628972C6}" name="UnitCode"/>
+    <tableColumn id="4" xr3:uid="{82C9FEC4-1299-4DB4-9272-7E7363741379}" name="Cost"/>
+    <tableColumn id="5" xr3:uid="{3C936E0D-09DA-421D-B339-3A43E2A5F64F}" name="CustomerID" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{B0B9A02B-DCB3-42EC-B2D8-165DCE2A80D4}" name="ClosingDate" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{8076CE3D-6688-476F-8263-A6DB419D137C}" name="InterestRate" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{D1ABBABF-5D7A-43A2-AE8E-A9978EB45E1D}" name="APR" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{AAC5640C-9077-462D-A08C-5785ABD4BE6D}" name="LoanTypeID" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{D3305F22-C233-4C88-9688-3972C88060B1}" name="LoanConsultantID"/>
+    <tableColumn id="11" xr3:uid="{CBD2F08F-6D2B-4E2A-8808-DACC8F12ACAE}" name="OfficeLocationID"/>
+    <tableColumn id="12" xr3:uid="{A82DB7BD-2923-44E3-95A7-BCEDA563765E}" name="UnitType">
+      <calculatedColumnFormula>VLOOKUP(C2,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{A4AF81E4-F948-4705-8C47-E0482FAF6D14}" name="Loan Type" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6B7CEE7A-5280-448C-992D-BECFA1C07E55}" name="loanType" displayName="loanType" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5" xr:uid="{E4FD644D-BCFF-4B1A-AF56-1325D8D4FEA4}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C0300FEE-F407-4CF3-BF64-4B9AED261AC1}" name="LoadTypeID"/>
+    <tableColumn id="4" xr3:uid="{7BF31F4F-68B3-445C-B251-DB4EF8CB130E}" name="Columna1"/>
+    <tableColumn id="2" xr3:uid="{A2BE0CBF-DC1E-4367-ADDE-B2718A357CCE}" name="LoanType"/>
+    <tableColumn id="3" xr3:uid="{06C776A6-A8B8-4A48-BCA8-6ED9B4129DFB}" name="Term"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1003,28 +1065,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362255C8-998C-4C0E-8C2C-D702B05C305C}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.53515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.15234375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.69140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1058,8 +1121,14 @@
       <c r="K1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>255</v>
       </c>
@@ -1093,8 +1162,16 @@
       <c r="K2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L2" t="str">
+        <f>VLOOKUP(C2,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Single</v>
+      </c>
+      <c r="M2" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Variable</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1128,8 +1205,16 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L3" t="str">
+        <f>VLOOKUP(C3,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Double</v>
+      </c>
+      <c r="M3" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Fixed</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>121</v>
       </c>
@@ -1163,8 +1248,16 @@
       <c r="K4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L4" t="str">
+        <f>VLOOKUP(C4,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Double</v>
+      </c>
+      <c r="M4" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Fixed</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>168</v>
       </c>
@@ -1198,8 +1291,16 @@
       <c r="K5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L5" t="str">
+        <f>VLOOKUP(C5,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Single</v>
+      </c>
+      <c r="M5" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Variable</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11</v>
       </c>
@@ -1233,8 +1334,16 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L6" t="str">
+        <f>VLOOKUP(C6,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Single</v>
+      </c>
+      <c r="M6" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Variable</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>23</v>
       </c>
@@ -1268,8 +1377,16 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L7" t="str">
+        <f>VLOOKUP(C7,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Single</v>
+      </c>
+      <c r="M7" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Variable</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1303,8 +1420,16 @@
       <c r="K8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L8" t="str">
+        <f>VLOOKUP(C8,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Studio</v>
+      </c>
+      <c r="M8" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Variable</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>386</v>
       </c>
@@ -1338,8 +1463,16 @@
       <c r="K9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L9" t="str">
+        <f>VLOOKUP(C9,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Single</v>
+      </c>
+      <c r="M9" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Fixed</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>446</v>
       </c>
@@ -1373,8 +1506,16 @@
       <c r="K10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L10" t="str">
+        <f>VLOOKUP(C10,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Single</v>
+      </c>
+      <c r="M10" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Fixed</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>428</v>
       </c>
@@ -1408,8 +1549,16 @@
       <c r="K11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L11" t="str">
+        <f>VLOOKUP(C11,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Studio</v>
+      </c>
+      <c r="M11" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Fixed</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>179</v>
       </c>
@@ -1443,8 +1592,16 @@
       <c r="K12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L12" t="str">
+        <f>VLOOKUP(C12,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Family</v>
+      </c>
+      <c r="M12" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Variable</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>364</v>
       </c>
@@ -1478,8 +1635,16 @@
       <c r="K13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L13" t="str">
+        <f>VLOOKUP(C13,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Studio</v>
+      </c>
+      <c r="M13" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Variable</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>434</v>
       </c>
@@ -1513,8 +1678,16 @@
       <c r="K14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L14" t="str">
+        <f>VLOOKUP(C14,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Double</v>
+      </c>
+      <c r="M14" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Variable</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>396</v>
       </c>
@@ -1548,8 +1721,16 @@
       <c r="K15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L15" t="str">
+        <f>VLOOKUP(C15,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Family</v>
+      </c>
+      <c r="M15" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Variable</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>238</v>
       </c>
@@ -1583,8 +1764,16 @@
       <c r="K16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L16" t="str">
+        <f>VLOOKUP(C16,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Family</v>
+      </c>
+      <c r="M16" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Fixed</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>427</v>
       </c>
@@ -1618,8 +1807,16 @@
       <c r="K17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L17" t="str">
+        <f>VLOOKUP(C17,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Studio</v>
+      </c>
+      <c r="M17" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Fixed</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>199</v>
       </c>
@@ -1653,8 +1850,16 @@
       <c r="K18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L18" t="str">
+        <f>VLOOKUP(C18,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Double</v>
+      </c>
+      <c r="M18" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Variable</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>167</v>
       </c>
@@ -1688,8 +1893,16 @@
       <c r="K19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L19" t="str">
+        <f>VLOOKUP(C19,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Double</v>
+      </c>
+      <c r="M19" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Fixed</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>290</v>
       </c>
@@ -1723,8 +1936,16 @@
       <c r="K20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L20" t="str">
+        <f>VLOOKUP(C20,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Single</v>
+      </c>
+      <c r="M20" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Fixed</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>51</v>
       </c>
@@ -1758,8 +1979,16 @@
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L21" t="str">
+        <f>VLOOKUP(C21,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Single</v>
+      </c>
+      <c r="M21" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Variable</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>76</v>
       </c>
@@ -1793,8 +2022,16 @@
       <c r="K22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L22" t="str">
+        <f>VLOOKUP(C22,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Studio</v>
+      </c>
+      <c r="M22" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Fixed</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>197</v>
       </c>
@@ -1828,8 +2065,16 @@
       <c r="K23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L23" t="str">
+        <f>VLOOKUP(C23,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Studio</v>
+      </c>
+      <c r="M23" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Fixed</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>55</v>
       </c>
@@ -1863,8 +2108,16 @@
       <c r="K24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L24" t="str">
+        <f>VLOOKUP(C24,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Double</v>
+      </c>
+      <c r="M24" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Fixed</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>153</v>
       </c>
@@ -1898,8 +2151,16 @@
       <c r="K25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L25" t="str">
+        <f>VLOOKUP(C25,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Double</v>
+      </c>
+      <c r="M25" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Fixed</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>166</v>
       </c>
@@ -1933,8 +2194,16 @@
       <c r="K26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L26" t="str">
+        <f>VLOOKUP(C26,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Family</v>
+      </c>
+      <c r="M26" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Variable</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>500</v>
       </c>
@@ -1968,8 +2237,16 @@
       <c r="K27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L27" t="str">
+        <f>VLOOKUP(C27,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Studio</v>
+      </c>
+      <c r="M27" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Variable</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>178</v>
       </c>
@@ -2003,8 +2280,16 @@
       <c r="K28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L28" t="str">
+        <f>VLOOKUP(C28,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Single</v>
+      </c>
+      <c r="M28" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Variable</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>298</v>
       </c>
@@ -2038,8 +2323,16 @@
       <c r="K29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L29" t="str">
+        <f>VLOOKUP(C29,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Single</v>
+      </c>
+      <c r="M29" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Fixed</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>280</v>
       </c>
@@ -2073,8 +2366,16 @@
       <c r="K30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L30" t="str">
+        <f>VLOOKUP(C30,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Double</v>
+      </c>
+      <c r="M30" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Variable</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>342</v>
       </c>
@@ -2108,8 +2409,16 @@
       <c r="K31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L31" t="str">
+        <f>VLOOKUP(C31,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Family</v>
+      </c>
+      <c r="M31" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Variable</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>336</v>
       </c>
@@ -2143,8 +2452,16 @@
       <c r="K32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L32" t="str">
+        <f>VLOOKUP(C32,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Single</v>
+      </c>
+      <c r="M32" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Fixed</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>83</v>
       </c>
@@ -2178,8 +2495,16 @@
       <c r="K33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L33" t="str">
+        <f>VLOOKUP(C33,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Studio</v>
+      </c>
+      <c r="M33" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Fixed</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>421</v>
       </c>
@@ -2213,8 +2538,16 @@
       <c r="K34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L34" t="str">
+        <f>VLOOKUP(C34,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Double</v>
+      </c>
+      <c r="M34" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Fixed</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>284</v>
       </c>
@@ -2248,8 +2581,16 @@
       <c r="K35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L35" t="str">
+        <f>VLOOKUP(C35,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Family</v>
+      </c>
+      <c r="M35" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Fixed</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>439</v>
       </c>
@@ -2283,8 +2624,16 @@
       <c r="K36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L36" t="str">
+        <f>VLOOKUP(C36,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Family</v>
+      </c>
+      <c r="M36" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Variable</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>497</v>
       </c>
@@ -2318,8 +2667,16 @@
       <c r="K37">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L37" t="str">
+        <f>VLOOKUP(C37,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Studio</v>
+      </c>
+      <c r="M37" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Fixed</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>185</v>
       </c>
@@ -2353,8 +2710,16 @@
       <c r="K38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L38" t="str">
+        <f>VLOOKUP(C38,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Studio</v>
+      </c>
+      <c r="M38" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Fixed</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>176</v>
       </c>
@@ -2388,8 +2753,16 @@
       <c r="K39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L39" t="str">
+        <f>VLOOKUP(C39,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Family</v>
+      </c>
+      <c r="M39" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Variable</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>223</v>
       </c>
@@ -2423,8 +2796,16 @@
       <c r="K40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L40" t="str">
+        <f>VLOOKUP(C40,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Studio</v>
+      </c>
+      <c r="M40" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Variable</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>346</v>
       </c>
@@ -2458,8 +2839,16 @@
       <c r="K41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L41" t="str">
+        <f>VLOOKUP(C41,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Single</v>
+      </c>
+      <c r="M41" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Variable</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>243</v>
       </c>
@@ -2493,8 +2882,16 @@
       <c r="K42" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L42" t="str">
+        <f>VLOOKUP(C42,'Unit Descriptions'!$A$2:$B$5,2,FALSE)</f>
+        <v>Studio</v>
+      </c>
+      <c r="M42" t="str">
+        <f>VLOOKUP(mortgages[[#This Row],[LoanTypeID]],loanType[],3,FALSE)</f>
+        <v>Variable</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>190</v>
       </c>
@@ -2522,76 +2919,89 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161AA597-CD1D-457D-AE92-B7A9D3DB8ADD}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>127</v>
       </c>
       <c r="B1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>124</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>124</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>125</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>125</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2603,18 +3013,18 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2637,7 +3047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2660,7 +3070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2683,7 +3093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2706,7 +3116,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2742,20 +3152,20 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.53515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.53515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -2790,7 +3200,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>198</v>
       </c>
@@ -2825,7 +3235,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>255</v>
       </c>
@@ -2860,7 +3270,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>282</v>
       </c>
@@ -2895,7 +3305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>167</v>
       </c>
@@ -2930,7 +3340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>130</v>
       </c>
@@ -2965,7 +3375,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>135</v>
       </c>
@@ -3000,7 +3410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3035,7 +3445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>232</v>
       </c>
@@ -3070,7 +3480,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>242</v>
       </c>
@@ -3105,7 +3515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>109</v>
       </c>
@@ -3140,7 +3550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>95</v>
       </c>
@@ -3175,7 +3585,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>416</v>
       </c>
@@ -3210,7 +3620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>357</v>
       </c>
@@ -3245,7 +3655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>472</v>
       </c>
@@ -3280,7 +3690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>108</v>
       </c>
@@ -3315,7 +3725,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>428</v>
       </c>
@@ -3350,7 +3760,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>297</v>
       </c>
@@ -3385,7 +3795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>292</v>
       </c>
@@ -3420,7 +3830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>212</v>
       </c>
@@ -3455,7 +3865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3490,7 +3900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>60</v>
       </c>
@@ -3525,7 +3935,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>140</v>
       </c>
@@ -3560,7 +3970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>270</v>
       </c>
@@ -3595,7 +4005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>290</v>
       </c>
@@ -3630,7 +4040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>412</v>
       </c>
@@ -3665,7 +4075,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>127</v>
       </c>
@@ -3700,7 +4110,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>171</v>
       </c>
@@ -3735,7 +4145,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>213</v>
       </c>
@@ -3770,7 +4180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>311</v>
       </c>
@@ -3805,7 +4215,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>456</v>
       </c>
@@ -3840,7 +4250,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>223</v>
       </c>
@@ -3875,7 +4285,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24</v>
       </c>
@@ -3910,7 +4320,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>354</v>
       </c>
@@ -3945,7 +4355,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>125</v>
       </c>
@@ -3980,7 +4390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>441</v>
       </c>
@@ -4015,7 +4425,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>483</v>
       </c>
@@ -4050,7 +4460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>57</v>
       </c>
@@ -4085,7 +4495,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>64</v>
       </c>
@@ -4120,7 +4530,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>415</v>
       </c>
@@ -4155,7 +4565,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>225</v>
       </c>
@@ -4190,7 +4600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>70</v>
       </c>
@@ -4239,20 +4649,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.3828125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.53515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>131</v>
       </c>
@@ -4284,7 +4694,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4316,7 +4726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4348,7 +4758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4380,7 +4790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4412,7 +4822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4457,18 +4867,18 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>148</v>
       </c>
@@ -4491,7 +4901,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4514,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4537,7 +4947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4560,7 +4970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4583,7 +4993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4606,7 +5016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4629,7 +5039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4652,7 +5062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4675,7 +5085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4698,7 +5108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
